--- a/Fichier Note De Frais.xlsx
+++ b/Fichier Note De Frais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quanticcloud-my.sharepoint.com/personal/mpierrat_izencia_com/Documents/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f37469\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7732B1E3-2D5C-4C23-84D6-6ED166141686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19EABC4-18AB-496F-BC7C-4887DDA81DC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18861CF1-23D5-4AB8-BF45-D26ECEFCBE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2670" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NF0195" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -84,6 +84,60 @@
   </si>
   <si>
     <t>SIGNATURE: .....................................................</t>
+  </si>
+  <si>
+    <t>ticket tram lundi matin</t>
+  </si>
+  <si>
+    <t>ticket tram lundi soir</t>
+  </si>
+  <si>
+    <t>carnet 10 tickets mardi</t>
+  </si>
+  <si>
+    <t>carnet 10 tickets mercredi</t>
+  </si>
+  <si>
+    <t>facture hôtel</t>
+  </si>
+  <si>
+    <t>lundi midi</t>
+  </si>
+  <si>
+    <t>lundi soir</t>
+  </si>
+  <si>
+    <t>mardi midi</t>
+  </si>
+  <si>
+    <t>mardi soir</t>
+  </si>
+  <si>
+    <t>mercredi midi</t>
+  </si>
+  <si>
+    <t>mercredi soir</t>
+  </si>
+  <si>
+    <t>jeudi midi</t>
+  </si>
+  <si>
+    <t>jeudi soir</t>
+  </si>
+  <si>
+    <t>vendredi midi</t>
+  </si>
+  <si>
+    <t>vendredi soir</t>
+  </si>
+  <si>
+    <t>carnet 10 tickets vendredi</t>
+  </si>
+  <si>
+    <t>cumul petit déjeuners</t>
+  </si>
+  <si>
+    <t>voir facture</t>
   </si>
 </sst>
 </file>
@@ -119,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -455,19 +509,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -526,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -608,45 +649,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,7 +857,7 @@
               </a:solidFill>
               <a:latin typeface="MS Sans Serif"/>
             </a:rPr>
-            <a:t>                                                </a:t>
+            <a:t>                  Janvier                              </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -847,7 +880,7 @@
               </a:solidFill>
               <a:latin typeface="MS Sans Serif"/>
             </a:rPr>
-            <a:t>Nom : </a:t>
+            <a:t>Nom : MARGOTTAT</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1205,28 +1238,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:I47"/>
+  <dimension ref="A6:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="A30" colorId="20" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G12"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="A37" colorId="20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="256" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,14 +1281,14 @@
       <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1266,478 +1299,872 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="47"/>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>44935</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="44"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="54">
+      <c r="G9" s="45">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H9" s="50">
         <f>G9-I9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="47"/>
+        <v>17.18</v>
+      </c>
+      <c r="I9" s="50">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>44935</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="54">
-        <f t="shared" ref="H10:H35" si="0">G10-I10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="47"/>
+      <c r="G10" s="45">
+        <v>10</v>
+      </c>
+      <c r="H10" s="50">
+        <f t="shared" ref="H10:H27" si="0">G10-I10</f>
+        <v>9.09</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>44935</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="54">
+      <c r="G11" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="H11" s="50">
+        <f>G11-I11</f>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="I11" s="50">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>44935</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="H12" s="50">
+        <f>G12-I12</f>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>44935</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="45">
+        <v>1103.4000000000001</v>
+      </c>
+      <c r="H13" s="50">
+        <f>G13-I13</f>
+        <v>1008.4900000000001</v>
+      </c>
+      <c r="I13" s="50">
+        <v>94.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>44936</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="45">
+        <v>17</v>
+      </c>
+      <c r="H14" s="50">
+        <f t="shared" si="0"/>
+        <v>14.17</v>
+      </c>
+      <c r="I14" s="50">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>44936</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="45">
+        <v>15.67</v>
+      </c>
+      <c r="H15" s="50">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+      <c r="I15" s="50">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>44936</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="45">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="0"/>
+        <v>17.360000000000003</v>
+      </c>
+      <c r="I16" s="50">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>44937</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="45">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" si="0"/>
+        <v>18.09</v>
+      </c>
+      <c r="I17" s="50">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>44937</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="45">
+        <v>24.4</v>
+      </c>
+      <c r="H18" s="50">
+        <f t="shared" si="0"/>
+        <v>22.18</v>
+      </c>
+      <c r="I18" s="50">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>44937</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="45">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H19" s="50">
+        <f t="shared" si="0"/>
+        <v>17.360000000000003</v>
+      </c>
+      <c r="I19" s="50">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>44938</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="45">
+        <v>20.5</v>
+      </c>
+      <c r="H20" s="50">
+        <f t="shared" si="0"/>
+        <v>18.510000000000002</v>
+      </c>
+      <c r="I20" s="50">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>44938</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="54">
+      <c r="I21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>44939</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="45">
+        <v>10</v>
+      </c>
+      <c r="H22" s="50">
+        <f t="shared" si="0"/>
+        <v>9.09</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>44939</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="54">
+      <c r="I23" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>44942</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="45">
+        <v>15.9</v>
+      </c>
+      <c r="H24" s="50">
+        <f t="shared" si="0"/>
+        <v>14.450000000000001</v>
+      </c>
+      <c r="I24" s="50">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>44942</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H25" s="50">
+        <f t="shared" si="0"/>
+        <v>16.450000000000003</v>
+      </c>
+      <c r="I25" s="50">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>44943</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="45">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H26" s="50">
+        <f t="shared" si="0"/>
+        <v>18.09</v>
+      </c>
+      <c r="I26" s="50">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <v>44943</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="54">
-        <f t="shared" si="0"/>
+      <c r="I27" s="50">
         <v>0</v>
       </c>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="54"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="54"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="54"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="54"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="54"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="54"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="54"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="54"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="43"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <v>44944</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="54"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="42"/>
+      <c r="G28" s="45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" ref="H28:H41" si="1">G28-I28</f>
+        <v>17.16</v>
+      </c>
+      <c r="I28" s="50">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <v>44944</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="46"/>
+      <c r="G29" s="45">
+        <v>25</v>
+      </c>
+      <c r="H29" s="50">
+        <f t="shared" si="1"/>
+        <v>22.73</v>
+      </c>
+      <c r="I29" s="50">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <v>44945</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="32"/>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="54"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="46"/>
+      <c r="G30" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="H30" s="50">
+        <f t="shared" si="1"/>
+        <v>13.18</v>
+      </c>
+      <c r="I30" s="50">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <v>44945</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="32"/>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="54"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
+      <c r="G31" s="45">
+        <v>33.9</v>
+      </c>
+      <c r="H31" s="50">
+        <f t="shared" si="1"/>
+        <v>30.82</v>
+      </c>
+      <c r="I31" s="50">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <v>44946</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="44"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="54"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="44"/>
+      <c r="G32" s="45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" si="1"/>
+        <v>17.16</v>
+      </c>
+      <c r="I32" s="50">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <v>44946</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="54"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="47"/>
+      <c r="G33" s="45">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H33" s="50">
+        <f t="shared" si="1"/>
+        <v>17.360000000000003</v>
+      </c>
+      <c r="I33" s="50">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34">
+        <v>44949</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="54"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="47"/>
+      <c r="G34" s="45">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H34" s="50">
+        <f t="shared" si="1"/>
+        <v>17.18</v>
+      </c>
+      <c r="I34" s="50">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34">
+        <v>44949</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="54">
-        <f t="shared" si="0"/>
+      <c r="G35" s="45">
+        <v>23.4</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>21.27</v>
+      </c>
+      <c r="I35" s="50">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
+        <v>44950</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="45">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H36" s="50">
+        <f t="shared" si="1"/>
+        <v>18.09</v>
+      </c>
+      <c r="I36" s="50">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <v>44950</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="45">
+        <v>24.4</v>
+      </c>
+      <c r="H37" s="50">
+        <f t="shared" si="1"/>
+        <v>22.18</v>
+      </c>
+      <c r="I37" s="50">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34">
+        <v>44951</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="45">
+        <v>20</v>
+      </c>
+      <c r="H38" s="50">
+        <f t="shared" si="1"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I38" s="50">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34">
+        <v>44951</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="45">
+        <v>19</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" si="1"/>
+        <v>17.37</v>
+      </c>
+      <c r="I39" s="50">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34">
+        <v>44952</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="45">
+        <v>20.5</v>
+      </c>
+      <c r="H40" s="50">
+        <f t="shared" si="1"/>
+        <v>18.64</v>
+      </c>
+      <c r="I40" s="50">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
+        <v>44952</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="45">
+        <v>25</v>
+      </c>
+      <c r="H41" s="50">
+        <f t="shared" si="1"/>
+        <v>22.73</v>
+      </c>
+      <c r="I41" s="50">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
+        <v>44952</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="45">
+        <v>66</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
+        <v>44953</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="46">
+        <f>SUM(G9:G44)</f>
+        <v>1701.8700000000003</v>
+      </c>
+      <c r="H45" s="50">
+        <f>SUM(H9:H44)</f>
+        <v>1490.97</v>
+      </c>
+      <c r="I45" s="50">
+        <f>SUM(I9:I44)</f>
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="49">
+        <v>0.34</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="F46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="46">
+        <f>D48</f>
         <v>0</v>
       </c>
-      <c r="I35" s="54"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="50">
-        <f>SUM(G9:G35)</f>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="F47" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="48">
+        <f>E45*C46</f>
         <v>0</v>
       </c>
-      <c r="H36" s="54">
-        <f>SUM(H9:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="54">
-        <f>SUM(I9:I35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="53">
-        <v>0.34</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="F37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="50">
-        <f>D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="F38" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="50"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="52">
-        <f>E36*C37</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="36" t="s">
+      <c r="F48" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="51">
-        <f>SUM(G9:G35)+G37-G38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="C41" t="s">
+      <c r="G48" s="47">
+        <f>SUM(G9:G44)+G46-G47</f>
+        <v>-298.12999999999965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="29"/>
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLinesSet="0"/>
@@ -1745,12 +2172,31 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"MS Sans Serif,Gras italique"&amp;14DECLARATION DE NOTES DE FRAIS</oddHeader>
+    <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7Classification : Internal</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F63894C60E034D8C810B5E326CE4EB" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3bf31d672387dea6bdef5ca7a5cc56c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3072c0f3-27cf-4d30-a65b-0572d45c4178" xmlns:ns3="a0538f30-735f-4443-a5ee-8e685abebd40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7054a884d83ad79119f34592314e8ca6" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1970,25 +2416,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CCE2FF-03C7-411D-970A-E8CBFDA6C38B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A141B768-F32F-409E-80F1-8EB5BE8369B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696067B0-7093-442E-8F3D-5BF05F6C965B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2006,24 +2454,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CCE2FF-03C7-411D-970A-E8CBFDA6C38B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A141B768-F32F-409E-80F1-8EB5BE8369B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>